--- a/biology/Botanique/Périmètre_de_reboisement_de_la_ville_de_Parakou/Périmètre_de_reboisement_de_la_ville_de_Parakou.xlsx
+++ b/biology/Botanique/Périmètre_de_reboisement_de_la_ville_de_Parakou/Périmètre_de_reboisement_de_la_ville_de_Parakou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9rim%C3%A8tre_de_reboisement_de_la_ville_de_Parakou</t>
+          <t>Périmètre_de_reboisement_de_la_ville_de_Parakou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Périmètre de reboisement de Parakou (PRP) est une aire protégée du Bénin situé dans la ville de Parakou, département du Borgou, partie septentrionale du Bénin.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P%C3%A9rim%C3%A8tre_de_reboisement_de_la_ville_de_Parakou</t>
+          <t>Périmètre_de_reboisement_de_la_ville_de_Parakou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Périmètre de reboisement de Parakou est classé pour son rôle de conservation de la végétation naturelle de la ville par l'arrêté N°20/79SE du 21 Avril 1949. A l'époque, le PRP s'étend sur une superficie de 333 hectares (ha). Mais cette superficie s'est considérablement réduite à 195 ha à la suite des fortes pressions anthropiques et certaines décisions politico-administratives comme l'implantation et extension du quartier Médina; l'usine COTEB, le Musée Plein Air de Parakou[2]. La délimitation de ce périmètre permet également de d'assurer la préservation de la forêt sacrée de Gbébou Yèkè[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Périmètre de reboisement de Parakou est classé pour son rôle de conservation de la végétation naturelle de la ville par l'arrêté N°20/79SE du 21 Avril 1949. A l'époque, le PRP s'étend sur une superficie de 333 hectares (ha). Mais cette superficie s'est considérablement réduite à 195 ha à la suite des fortes pressions anthropiques et certaines décisions politico-administratives comme l'implantation et extension du quartier Médina; l'usine COTEB, le Musée Plein Air de Parakou. La délimitation de ce périmètre permet également de d'assurer la préservation de la forêt sacrée de Gbébou Yèkè.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P%C3%A9rim%C3%A8tre_de_reboisement_de_la_ville_de_Parakou</t>
+          <t>Périmètre_de_reboisement_de_la_ville_de_Parakou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Situation géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Périmètre de reboisement de la ville de Parakou est situé dans le quartier Kpébié proche du parc automobile de Parakou dans le 1er arrondissement[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Périmètre de reboisement de la ville de Parakou est situé dans le quartier Kpébié proche du parc automobile de Parakou dans le 1er arrondissement. 
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P%C3%A9rim%C3%A8tre_de_reboisement_de_la_ville_de_Parakou</t>
+          <t>Périmètre_de_reboisement_de_la_ville_de_Parakou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Ecosystème</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le PRP est constitué d'une gamme d'écosystèmes(floristique et faunique). Sur le plan faunique, on distingue les oiseaux, les mammifères et les reptiles. Sur le plan floristique, ce paysage est dominé par Khaya senegalensis, Isoberlinia thomentosa et Senna siamea.
 </t>
